--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-10T08:33:48+00:00</t>
+    <t>2025-11-12T08:37:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:37:23+00:00</t>
+    <t>2025-11-13T10:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T10:43:15+00:00</t>
+    <t>2025-11-17T16:08:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T16:08:32+00:00</t>
+    <t>2025-11-18T10:18:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:18:37+00:00</t>
+    <t>2025-11-18T10:31:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:31:28+00:00</t>
+    <t>2025-11-18T14:30:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T14:30:08+00:00</t>
+    <t>2025-11-18T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
+++ b/389-mapping---projet-personnalisé/ig/StructureDefinition-tddui-outside-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
